--- a/Content/Teams/Content Pack Deutsch.xlsx
+++ b/Content/Teams/Content Pack Deutsch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoschreder\Development\powerappadventcalendar\Content\Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711C5C8-C7FE-496F-A0BC-C8685CA84461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0BB3E-9315-42E9-A92A-00D742E47A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="0" windowWidth="23490" windowHeight="14680" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{36ACBFC6-48A0-4CD7-B10E-9675CF43A6CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Title</t>
   </si>
@@ -152,6 +152,63 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oSzjUdARBJQ&amp;list=PLrjyRwm0bfX-J8a2QQyM8lPjfD5tuRia5</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/1.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/2.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/3.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/4.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/5.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/7.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/8.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/9.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/10.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/12.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/13.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/14.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/15.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/17.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/18.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/19.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/20.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/22.PNG</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nschreder/powerappadventcalendar/main/Content/Teams/Deutsch/23.PNG</t>
   </si>
 </sst>
 </file>
@@ -545,7 +602,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +610,8 @@
     <col min="1" max="1" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="88.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,6 +645,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
       <c r="F2">
         <v>4</v>
       </c>
@@ -601,6 +662,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
       <c r="F3">
         <v>24</v>
       </c>
@@ -615,6 +679,9 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
       <c r="F4">
         <v>23</v>
       </c>
@@ -629,6 +696,9 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
       <c r="F5">
         <v>11</v>
       </c>
@@ -643,6 +713,9 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6">
         <v>21</v>
       </c>
@@ -677,6 +750,9 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
       <c r="F8">
         <v>20</v>
       </c>
@@ -691,6 +767,9 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
       <c r="F9">
         <v>17</v>
       </c>
@@ -705,6 +784,9 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
       <c r="F10">
         <v>15</v>
       </c>
@@ -719,6 +801,9 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="F11">
         <v>18</v>
       </c>
@@ -753,6 +838,9 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
       <c r="F13">
         <v>13</v>
       </c>
@@ -767,6 +855,9 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
       <c r="F14">
         <v>12</v>
       </c>
@@ -781,6 +872,9 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
       <c r="F15">
         <v>8</v>
       </c>
@@ -795,6 +889,9 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
       <c r="F16">
         <v>2</v>
       </c>
@@ -829,6 +926,9 @@
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
       <c r="F18">
         <v>16</v>
       </c>
@@ -843,6 +943,9 @@
       <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
       <c r="F19">
         <v>1</v>
       </c>
@@ -857,6 +960,9 @@
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
       <c r="F20">
         <v>6</v>
       </c>
@@ -871,6 +977,9 @@
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
       <c r="F21">
         <v>14</v>
       </c>
@@ -905,6 +1014,9 @@
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
       <c r="F23">
         <v>7</v>
       </c>
@@ -919,6 +1031,9 @@
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
       <c r="F24">
         <v>9</v>
       </c>
@@ -945,13 +1060,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{6841AC09-FA14-4D3E-8460-B1D04D7A0437}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1015,12 +1127,80 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Members>
+    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Leaders>
+    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Member_Groups>
+    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1540,86 +1720,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Owner xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Math_Settings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <TeamsChannelId xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <NotebookType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Has_Leaders_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AppVersion xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <CultureName xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Distribution_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Templates xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Members>
-    <Invited_Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Students xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <FolderType xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Teachers xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Leaders>
-    <Member_Groups xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Member_Groups>
-    <Invited_Members xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <LMS_Mappings xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-    <Invited_Leaders xmlns="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1645,12 +1760,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0A4B2C-23E9-4600-B233-DC08F6478FEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB5A595-6ECE-49F1-AADE-0218D6C158AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb4ef2a3-abf9-4bd1-87ad-3597e77c0e6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
